--- a/Testdata/TC_135.xlsx
+++ b/Testdata/TC_135.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>7D8AAB+LCAAAAAAAAAPtm9tv29YZwP8Vwk8tEJmkLrblnbDQxXa0WrZrKUvcl4Aij23OFKnxYltv6UMbL12KDU0LtE0XdFvXrusNWNZ0ufV/KSw5e8q/sO+cw6tEOaSbFTWgIkV0vsu5n+/78YRErxx2dW4fW7ZmGhdnxFlhhsOGYqqasXNxxnW2c+LczCsSWjpUsL4hW3IXO2DMgZdhLx7a2sWZXcfpLfL8wcHB7EFh1rR2+LwgiPzV5mpL2cVdOacZtiMbCp4JvNTne81IqKZ2m9iRVdmRmefFmUarMVvDmlIHWVM25B1szVZdWzOwbS8ZjuZo2CaeFpYdXKs3f8MGJuVn52ZFxI/JQ8uqq+kqs4tZMrlnB83ittbFUl4QF3KimMuX28LcYqm8KORnRbHwuu8YGKJV2XZa2NrXFCpoOXK3R91FMV8W5kplIY/4RCOoK5wACa3r6ibe12ys1rCu25lmhPcWsKI4MOpskykgPuLrVXT2LqxYcm+3rTk6zuq+bFpYgYk6U9tr+GDd8uav3VsFbXtXs5x+Xe5nruuyja31HpmNbK4SqpuGU9Gx5VzuwaJiFdYcFJJjuRjxE5ShU12zFfitGS5WpW1Zt6NOMSW6Ylp7dk9W8BocWJ7UcWDopqzCznI029GUsNExBdqwzB7UCI1XTV1dhlo94wRFUHPDgCkmzVZNcy/sXZIS0T1AdwOsaVd2fPMxOWrtmgfrht5vuR1bsbQOVutV3zpRh8jJ87xrru2YXehFKEJMFpE0m3wf/oPDNqpBdaxoXVnf0GEebakAFcUEqOI65rbm1Ezd7Rq2360RKboCg2rjw2CQQRmtw/oaZN5No2H49mymE1Vxh03zIGhzXEHnISKu2Iq/4uOKUeM6yPwVHNfQRSGjXNZ0yAXR5YhI4xujtYuxk7grmAaRsLdMsotU7a+53Q6csA4cs33aqo34UI9gq8J2h35JAmSMHP3TFoRF+gf6EajRkqFOtvOVCJqLtCWJoBsRIRiTXtVlYw+kVzRnd63ijyVBg9gMTLQf1yE4vD1d7lNxMEtRGWoYiu6qmMWEhrFNtyjpG1vUiWo0JlqFYy4h2ei3+z2Iwba26MCPizOQlRdtx4K8PyMppms4Vp8ED8R7ps/zsd2OQRuQ9dQ+2xb+nQu40V92DaVmqulbU9nsXDY0J30PTddiETG9C509Ehxdu45JmKFxP7W/kmVMtpXJvGvgrmloSvrZhkkmvVfPMBDbP1WpPTA7X6ntdUjtLPORs57azQJWhFyXqZmKbZuKRjerdzzUiD8/4cjU8bbs6sBpDmTZnSD2jopRxd4btYmK0GVL9yOgRCjYBgxW1O6sAvxAUG9WMbtEwAN9XmkhPmpPIEjBS8bOqmzsuIAZQVwZlQfxl6TItiUbNhlOQBUjoTjZCPlxitGOxILXuks3AgteJmgRP2KH2rjbMy1Zb8LEaMvetvOQCWikKTu7Xglym44Vf5L50DXwivfM7/jzzGiSYsMgB94LkyNCakTGwoA7tAlliIyyCcdSr8m61rFYVPVTeZIOFizkQz/+ksFlZEV/DeChC7Lvq7hPSDwseHK6ZUVfwTYwCaRSa7O4kC8JpRKQDSkjOuIVc9/hAIMxYCKX49ryIfcrrmGo2r6murIOP2HzwcjY9HgpKJNn1Act+/GddqEC/YxL4gbAGTsapI9xw0ATOkhbWLb0fsSQDXHVVMBuePuHwYM7w9vfDd78NHfy+TuDm588e/Th8fdfHD94wKRsjMwateWOjmmP2tWFBaFQhA0WiBCZVZ5iseoqDpVtbVEaDsrIe3qjhdpSo7ayWqWBJBD67iyX8OTBsG+6YbHFRkEbomvJ+1uAmUhtPzB55Zg2kpsk8qC2j+PWUf0kRzYXJw8/O3n41URvb8JCyBLLZXgSzj+XweCRVxyzCxhsNRb8iXExJ5Ry+XzEeMQGbbLIH8xTQ5UKolAWxHlBDIK4GuziJKNRlVdTW97hR/yYqMa4KNgC0bKvpDu/jW0nULOzECl4e/Tfbz/95r2YlTe7niReC3SO8gtpjPcLtOq1zTbXWr+8WVvi2kstsk9CXcSOVX6Ksdd6cKBim8ow4JRf4CCrQxbjZuBRaIYztzksK7tcH45i5CDGNluSlDV0xipHe7limW6PrUjEIZQmWAbhJNEjIdhQHZ3PsagTqhLMWV8H/7mX5OANpB6SrLTZrHJdI9iXVIZiGiaK6L1T+8GT4+9vkOD27Z8G378Rq8FrJ7gSgH0OpylaDLY9hDwv0YxI0JUWncw94VoksXhC8gS1YWqGY0tikT48eSUEriKpjf6NGl3IdbRiOl8gH5GgS7K9dOh4B1taQ3xcAP3syZBmzfChMxCwGB7O638//vPwo3vD9799euOLwc3PB394/+Th3adff8JO3fC9b4e3vvai/GgioH0hj7KM/jh6N6Jw5DRyJGlzP15/lzNMhwPW4FwakX68/kGkMtJRSiVhzcByQUfiXRgzjToTPy7SlaAPMb/AhWX+GklhhcDCS2JmT1PCRl7PkarIuaOKlxrtnGtjzgSMehlGEjcOndP6eS4spW7MC3kx72lZb8gQOrIdmfoV3ewARvgKevMwYhLzOt0htKXtrayuVyuroQnrxLqlYotsQ/YD+SxJUkrD9kv+VotIQAvEp7g6uSwaMxtXBTVHwhjv3bpsV1QS/pLvKGIWqOZaFiMiw7uwb7k9oGD/em6ynl5ZRsB3jUFqFIXDcqMe10M5ooVEGFcTAdXT0OSpWJhq2OSCh3HsGpmasAi62DUnTId3J89IC6gSWzyJO0uWZVqJwSfU+GZNQGiIKHw444ENXVOG22q4Vr7AD3gvBruL5UI5jt2WadtcHQCZXLFyHgpyL63UN15OhO1T7U9B7NfSIvaYYRJiv+YCxuHJlD346PHgrTdPbt89fvDZ8PrDwfVHzx4dQR+fPfr9FK9fGF6Xc0Lhl4PXoig8H689oylep8Xr4KSFONyUrQvcr10DX+CAci5wBI+zQ/ZPqngyar+WGbUTPU5F7aTok4a2v/prBtruTKTtzmTaHtx64/jBDy+KtsXJtC1ei+STcdou5ae0PaXtc0Xb4pS2zwttjwSfXyxtl0RhPkbbteoiV1H3yStH9iK3AQNl/yg5ztmTLE8h7EtpCXvMMImwW7iryfQebCJk16rPHn349N794ZdPBg+/G965Ozj6x8k7N4Lr7ClpvyjSXgDMnktD2oWf5yK7VE5xkc2MpqSdlrQvyfp2rk9vcQMiBhg+K1+fobrJVH0pM1UnepxK1RMiThqwvnUz/U32xqubE26yfc2pN9mD+/cGdx8M3/9m8PHfB7f+Mvzm9k+E7PxkyM5fi6SRcciem0L2FLLPF2Tnp5B9XiB7JPj8ciFbKMYhe7nSWOT6jroYfQnEf40lJqyZ5K1hmbHcOIOfsaJTEL2ZktBH7ZIAvWkazu5ENoe+A4dDVhwcffz0xr+OH970sPzxu4P7nw7ee2t4dB8kJ29/efLPtwd/PDp+fOfkb0+mxP5iiD0vCMU0r/8yCC/+DMS+UExB7MxoSuxpiX38CKZk81MdJ1N4MzOFJ3qcSuHjXUsB4MM7R+frPZLCZOguXIuklYT3SPLTF0mm1H2+qLswpe7zQt0j0ef/Qt3eD/btgDdCs4517GT+8tH3bpr7Z/aFtc/q2rDXddWbzGwvrwfTElYQ/fyTbJSsnalYFgAR+Vgs8/eaq5qx18g2eqmjluRCvqDM4fl8eW6+3BG2y9sLhQL8XxTkEiAhrZR8y0Cq6AI1ky8BsjUCGBh3D7/a2JSNnYy1sQmmjuTLBpgpMs9kC2uW7VwladL7xSRbgWSLUfBVqchQ9yorb0liyZOABR+tno/1048oDvs22NRXta6W8XsHwQ878Upg4Xs9xolZlxAy3ho+BIqN1ACxuvNbyGbsA6EstbFzBCE+8Ccf5dnazq6TtWOKouQ7gpLPFQt4LleU5fmcjMXtnCgU5ueU4nyxMFcin/R5lUNA0/BBxkZ4f8HCb/al/wE/Dnhd7D8AAA==</t>
+          <t>QkEAAB+LCAAAAAAAAAPtnNtv29YZwP8Vwk8tEJkXyY7lnbDQxXa0WrZjKUvSl4Aij2wuFKnxYltv6UObLFmKDU0LtE0XdFvXrusNWNZ0ubT/S2HJ2VP+hX3nHF4lyiHdrEgAFSmi813O/Xzfj6dk0WsHPYPbw7ajW+aZOXFemOOwqVqabu6cmfPcbkFcnHtNRisHKja2FFvpYReMOfAyneUDRz8zt+u6/WWe39/fn98vzlv2Di8JgshfbK631F3cUwq66biKqeK50Et7ttecjGpar4ldRVNchXmemWu0GvM1rKt1kDUVU9nB9nzVc3QTO86K6equjh3iaWPFxbV68zdsYLI0vzgvIn5CHllWPd3QmF3Cksl9O2gWt/UeliVBEgrCUkES2kJ5WVpYlpbmSwuLbwSOoSFaVxy3he09XaWClqv0+tRdWIJ/y9KCtIT4VCOoK5oAGW0a2jbe0x2s1bBhOLlmhPcXsKK6MOp8kykgPubrV3TyLqzZSn+3rbsGzuu+atlYhYk6UdsbeH/T9uev3V8HbXtXt91BXRnkruu8g+3NPpmNfK4yqlumWzGw7Z7vw6JiDdYcFLJrexjxU5SRU113VPitmx7W5K5iOHGnhBJdsOwrTl9R8QYcWJ7UsW8alqLBznJ1x9XVqNEJBdqyrT7UCI1XLUNbhVp94xRFWHPDhCkmzVYt60rUuzQlonuA7gZY057iBuYTctTatfY3TWPQ8jqOausdrNWrgXWqDpGT53vXPMe1etCLSISYLCZpNvkB/AOHbVyD6ljVe4qxZcA8OnIRKkoIUMVzra7u1izD65lO0K0xKboAg2rjg3CQYRltwvqaZN4ts2EG9mymU1VJh21rP2xzUkHnISauOGqw4pOKceM6yIIVnNTQRSGjXNUNyAXx5YhJkxujtYuxm7ormAaRsLdKsotcHWx4vQ6csA4csz3aqoP4SI9gq8J2h37JAmSMAv3TFoRl+gf6EarRiqlNtwuUCJqLtSWLoBsTIRiTUTUU8wpIL+ju7kYlGEuKBrEZmGo/qUNwePuGMqDicJbiMtQwVcPTMIsJDbNLtyjpG1vUqWo0IVqHYy4jxRy0B32IwY6+7MKPM3OQlZcd14a8Pyerlme69oAED8T7ps/ycbyOSRtQjMw+XRv/zgPcGKx6plqztOytaWx2zpu6m72HlmeziJjdhc4eCY6eU8ckzNC4n9lfzTMmx85l3jNxzzJ1NftswyST3msnGIgTnKrMHpidr8z2BqR2lvnIWc/sZgMrQq7L1UzFcSxVp5vVPx5azJ+fcmTquKt4BnCaC1l2J4y942JUca6M28RF6LxtBBFQJhTsAAarWm9eBX4gqDevWj0i4IE+L7QQH7cnEKTiFXNnXTF3PMCMMK6My8P4S1Jk21ZMhwwnpIqxUJxuhII4xWhHZsFr06MbgQUvC7SIH7NDbdzrW7ZiNGFi9FV/2/nIBDTSVNxdvwS5zcBqMMl85Bp6JXsWdPxZZjRJsWGQA++HyTEhNSJjYcAd2UQyREbZhGNp1BRD79gsqgapPE0HCxbxYRB/yeBysmKwBvDQBdn3dTwgJB4VfDndsmKgYBuYBFK5tV1akhaEhQUgG1JGdMRr1p7LAQZjwESuwLWVA+5XXMPU9D1d8xQDfsLmg5Gx6fFTUC7PuA9aDeI77UIF+pmUJA2AM3Z0SB+ThqEmcpAvYcU2BjFDNsR1SwW70e0fhw/ujG5/N3zr08LR5+8Mb3zy9NGHh99/cfjgAZOyMTJr1FY6BqY9aleXloRiCTZYKEJkVnmKxZqnulR26RKl4bCM/Kc3WqitNGpr61UaSEJh4M5yCU8eDAeWFxVbbBS0IbqWfLAFmIncDgKTX05oY7lJJg9qezhpHddPc2RzcfTws6OHX0319icsgiyxXF4qiNIzGUwSRHHCLmSw9UTwJ8algrBQkKSY8ZgN2maRP5ynhiYXRaEsiKcFMQziWriL04zGVX5NbWWHH/NjohrjonALxMuBku78NnbcUM3OQqzg79F/33zyzXsJK392fUmyFugc5RfSGB8UaNUb222utXl+u7bCtVdaZJ9Eupgdq/wYY7/18EAlNpVpwik/xUFWhyzGzcGj0BxndTmsqLvcAI5i7CAmNlualDV0wirHe7lmW16frUjMIZKmWIbhJNUjJdhQHZ3PiagTqVLMWV+H/7mX5uAPpB6RrLzdrHI9M9yXVIYSGiaK6f1T+8EPh99fI8Ht2z8Nv38zUYPfTnglAPscTlO8GG57CHl+ohmToAstOplXhMuxxOILyRPUlqWbriOLJfrw5JcQuIqkNvo3avQg19GK6XyBfEyCzirOyoHrH2x5A/FJAfSzr0CataKHzlDAYng0r//9+M+jj+6N3v/2ybUvhjc+H/7h/aOHd598/Qk7daP3vh3d+tqP8uOJgPaFPMoy+uPo3YjKkdPIkaTN/XT1Xc60XA5Yg/NoRPrp6gexykhHKZVENQPLhR1JdmHCNO5M/LhYV8I+JPxCF5b5aySFFUMLP4lZfV2NGnmjQKoi544qXmm0C56DOQsw6lUYSdI4cs7q57uwlLp1WpBEydey3pAhdBQnNvVrhtUBjAgU9OZhzCThdbxDZEvbW1vfrFbWIxPWiU1bwzbZhuwHajgBTQbbKyYBLVCe6hnkgmjCbFKFgl+x0MX7Ny3dikZCXvq9RMIC1TzbZhRk+pf0La8P5BtcyU3X02vKGOxuMDCN429UbtSTeijHtJD8kmoioHoajnwVC00Nh1zqMHbdIFMTFUGXuNqE6fDv4RldAUlimyexZsW2LTs14ESawKwJ2AxRhI9mPLThSZMMsbVorQJBEOSeD2qXysVyErVty3G4OkAxuVblfPzjXlmrb72aCtjH2h+D1eeyYvWEYRpWn/MA3fB0sh5+9Hj49ltHt+8ePvhsdPXh8Oqjp4+uQx+fPvr9DKmfG1KXC0LxxUFqURSejdS+0QypsyJ1eNIiBG4q9inu156JT3FANqc4gsT5wfpnVTwdr8/lxutUj2PxOi36ZCHsr/6ag7A7Uwm7M52wh7fePHzw4/MibHE6YYuXY/lkkrAXpBlhzwj7pSJscUbYLzJhjwWcF5awF0ThdIKwa9VlrqLtkVeLnGVuCwbK/uPjJFtPszyGqs9mpeoJwzSqbuGertD7rqlgXas+ffThk3v3R1/+MHz43ejO3eH1fxy9cy28tp7R9fOi6yVA68UsdF38ZS6sF8oZLqyZ0Yyus9L1WcXoFgb0tjakYADgkzL1CaqbTtJnc5N0qsexJD0l4mSB6Vs3st9Yb72+PeXGOtAce2M9vH9vePfB6P1vhh//fXjrL6Nvbv9MsJamg7V0OZZGJsF6cQbWM7B+ucBamoH1iwzWYwHnxQVroZQE69VKY5kbuNpy/AWP4BWVhLBmkTeCFcZvk9x9woqOwfJmRioft0uD8qZlurtTeRz6DuwNmXB4/eMn1/51+PCGj+KP3x3e/3T43tuj6/dBcnTzy6N/3hz+8frh4ztHf/thRunPh9IlQShlebWXgXfpF6D0pVIGSmdGM0rPSumTRzAjjx/rOJ28m7nJO9XjWPKe7FoG6B7duf5yvSNSnA7axcuxtJLyjog0e0lkRtovF2kXZ6T9IpP2WMT5v5C2/4N9C+CP0KpjA7u5v2QMvJvW3ol9Ye3zujacTUPzJzPfy+jhtEQVxD/nJBslb2cqtg0QRD7+yv395bpuXmnkG72siCIuLxZPa0V8ulTsKp2SWuyUJK20VCovnSaf4NJKybcJpIoekDJ5sz9fI4B+SffoK4xtxdzJWRubYOpIvlSAmaIH0g/sYRmt6rbjXiSZ0v/FJJdCySUGwhflEqPdi6x8SRYXfAlY8PHW+ES3gwDjsk9/LWNd7+k5P2cQgiiUrAT2Qb/PUDHvikLS28AHALKxGiBcd34LCY19/5OnNnasIMqH/kFdLa+Tuzo+cN4CPdlZJ/Ne0YDMTu5NP6TVjZ/RAYpeJ62iYTr6zq6bd12lcrmIF7FUkLqqWihBoQDpuFPQlG5ZFIRuUSOvQISVQ3rQ8X7ORkhS0R1PMfL78WP/JwT5f/WhU25CQQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.0156159028969747</v>
+        <v>0.01561590289697475</v>
       </c>
       <c r="C20" s="2">
-        <v>0.6997387128588985</v>
+        <v>0.6997387128588987</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.8327314397107112</v>
+        <v>-0.8327314397107113</v>
       </c>
       <c r="E20" s="2">
         <v>1.592444231343219</v>
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.075751539480832</v>
+        <v>-1.075751539480831</v>
       </c>
       <c r="C21" s="2">
         <v>0.008469068129264734</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.0007957953460095979</v>
+        <v>-0.0007957953460087097</v>
       </c>
       <c r="E21" s="2">
         <v>1.800831162261844</v>
@@ -2473,4 +2473,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>155</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>155</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Gross Domestic Product (GDP)</Name>
+          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
+          <SeriesId>310911001</SeriesId>
+          <Code>SR4824939</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>155</EndRow>
+          <EndCol>4</EndCol>
+          <Name>CB: Advances: Personal</Name>
+          <DisplayName>CB: Advances: Personal</DisplayName>
+          <SeriesId>310905901</SeriesId>
+          <Code>SR4825107</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>5</InitCol>
+          <EndRow>155</EndRow>
+          <EndCol>5</EndCol>
+          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
+          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
+          <SeriesId>310908401</SeriesId>
+          <Code>SR4825047</Code>
+          <Order>3</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47D46C3C-0FB2-4515-BADD-9198D86829AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_135.xlsx
+++ b/Testdata/TC_135.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>QkEAAB+LCAAAAAAAAAPtnNtv29YZwP8Vwk8tEJkXyY7lnbDQxXa0WrZjKUvSl4Aij2wuFKnxYltv6UObLFmKDU0LtE0XdFvXrusNWNZ0ubT/S2HJ2VP+hX3nHF4lyiHdrEgAFSmi813O/Xzfj6dk0WsHPYPbw7ajW+aZOXFemOOwqVqabu6cmfPcbkFcnHtNRisHKja2FFvpYReMOfAyneUDRz8zt+u6/WWe39/fn98vzlv2Di8JgshfbK631F3cUwq66biKqeK50Et7ttecjGpar4ldRVNchXmemWu0GvM1rKt1kDUVU9nB9nzVc3QTO86K6equjh3iaWPFxbV68zdsYLI0vzgvIn5CHllWPd3QmF3Cksl9O2gWt/UeliVBEgrCUkES2kJ5WVpYlpbmSwuLbwSOoSFaVxy3he09XaWClqv0+tRdWIJ/y9KCtIT4VCOoK5oAGW0a2jbe0x2s1bBhOLlmhPcXsKK6MOp8kykgPubrV3TyLqzZSn+3rbsGzuu+atlYhYk6UdsbeH/T9uev3V8HbXtXt91BXRnkruu8g+3NPpmNfK4yqlumWzGw7Z7vw6JiDdYcFLJrexjxU5SRU113VPitmx7W5K5iOHGnhBJdsOwrTl9R8QYcWJ7UsW8alqLBznJ1x9XVqNEJBdqyrT7UCI1XLUNbhVp94xRFWHPDhCkmzVYt60rUuzQlonuA7gZY057iBuYTctTatfY3TWPQ8jqOausdrNWrgXWqDpGT53vXPMe1etCLSISYLCZpNvkB/AOHbVyD6ljVe4qxZcA8OnIRKkoIUMVzra7u1izD65lO0K0xKboAg2rjg3CQYRltwvqaZN4ts2EG9mymU1VJh21rP2xzUkHnISauOGqw4pOKceM6yIIVnNTQRSGjXNUNyAXx5YhJkxujtYuxm7ormAaRsLdKsotcHWx4vQ6csA4csz3aqoP4SI9gq8J2h37JAmSMAv3TFoRl+gf6EarRiqlNtwuUCJqLtSWLoBsTIRiTUTUU8wpIL+ju7kYlGEuKBrEZmGo/qUNwePuGMqDicJbiMtQwVcPTMIsJDbNLtyjpG1vUqWo0IVqHYy4jxRy0B32IwY6+7MKPM3OQlZcd14a8Pyerlme69oAED8T7ps/ycbyOSRtQjMw+XRv/zgPcGKx6plqztOytaWx2zpu6m72HlmeziJjdhc4eCY6eU8ckzNC4n9lfzTMmx85l3jNxzzJ1NftswyST3msnGIgTnKrMHpidr8z2BqR2lvnIWc/sZgMrQq7L1UzFcSxVp5vVPx5azJ+fcmTquKt4BnCaC1l2J4y942JUca6M28RF6LxtBBFQJhTsAAarWm9eBX4gqDevWj0i4IE+L7QQH7cnEKTiFXNnXTF3PMCMMK6My8P4S1Jk21ZMhwwnpIqxUJxuhII4xWhHZsFr06MbgQUvC7SIH7NDbdzrW7ZiNGFi9FV/2/nIBDTSVNxdvwS5zcBqMMl85Bp6JXsWdPxZZjRJsWGQA++HyTEhNSJjYcAd2UQyREbZhGNp1BRD79gsqgapPE0HCxbxYRB/yeBysmKwBvDQBdn3dTwgJB4VfDndsmKgYBuYBFK5tV1akhaEhQUgG1JGdMRr1p7LAQZjwESuwLWVA+5XXMPU9D1d8xQDfsLmg5Gx6fFTUC7PuA9aDeI77UIF+pmUJA2AM3Z0SB+ThqEmcpAvYcU2BjFDNsR1SwW70e0fhw/ujG5/N3zr08LR5+8Mb3zy9NGHh99/cfjgAZOyMTJr1FY6BqY9aleXloRiCTZYKEJkVnmKxZqnulR26RKl4bCM/Kc3WqitNGpr61UaSEJh4M5yCU8eDAeWFxVbbBS0IbqWfLAFmIncDgKTX05oY7lJJg9qezhpHddPc2RzcfTws6OHX0319icsgiyxXF4qiNIzGUwSRHHCLmSw9UTwJ8algrBQkKSY8ZgN2maRP5ynhiYXRaEsiKcFMQziWriL04zGVX5NbWWHH/NjohrjonALxMuBku78NnbcUM3OQqzg79F/33zyzXsJK392fUmyFugc5RfSGB8UaNUb222utXl+u7bCtVdaZJ9Eupgdq/wYY7/18EAlNpVpwik/xUFWhyzGzcGj0BxndTmsqLvcAI5i7CAmNlualDV0wirHe7lmW16frUjMIZKmWIbhJNUjJdhQHZ3PiagTqVLMWV+H/7mX5uAPpB6RrLzdrHI9M9yXVIYSGiaK6f1T+8EPh99fI8Ht2z8Nv38zUYPfTnglAPscTlO8GG57CHl+ohmToAstOplXhMuxxOILyRPUlqWbriOLJfrw5JcQuIqkNvo3avQg19GK6XyBfEyCzirOyoHrH2x5A/FJAfSzr0CataKHzlDAYng0r//9+M+jj+6N3v/2ybUvhjc+H/7h/aOHd598/Qk7daP3vh3d+tqP8uOJgPaFPMoy+uPo3YjKkdPIkaTN/XT1Xc60XA5Yg/NoRPrp6gexykhHKZVENQPLhR1JdmHCNO5M/LhYV8I+JPxCF5b5aySFFUMLP4lZfV2NGnmjQKoi544qXmm0C56DOQsw6lUYSdI4cs7q57uwlLp1WpBEydey3pAhdBQnNvVrhtUBjAgU9OZhzCThdbxDZEvbW1vfrFbWIxPWiU1bwzbZhuwHajgBTQbbKyYBLVCe6hnkgmjCbFKFgl+x0MX7Ny3dikZCXvq9RMIC1TzbZhRk+pf0La8P5BtcyU3X02vKGOxuMDCN429UbtSTeijHtJD8kmoioHoajnwVC00Nh1zqMHbdIFMTFUGXuNqE6fDv4RldAUlimyexZsW2LTs14ESawKwJ2AxRhI9mPLThSZMMsbVorQJBEOSeD2qXysVyErVty3G4OkAxuVblfPzjXlmrb72aCtjH2h+D1eeyYvWEYRpWn/MA3fB0sh5+9Hj49ltHt+8ePvhsdPXh8Oqjp4+uQx+fPvr9DKmfG1KXC0LxxUFqURSejdS+0QypsyJ1eNIiBG4q9inu156JT3FANqc4gsT5wfpnVTwdr8/lxutUj2PxOi36ZCHsr/6ag7A7Uwm7M52wh7fePHzw4/MibHE6YYuXY/lkkrAXpBlhzwj7pSJscUbYLzJhjwWcF5awF0ThdIKwa9VlrqLtkVeLnGVuCwbK/uPjJFtPszyGqs9mpeoJwzSqbuGertD7rqlgXas+ffThk3v3R1/+MHz43ejO3eH1fxy9cy28tp7R9fOi6yVA68UsdF38ZS6sF8oZLqyZ0Yyus9L1WcXoFgb0tjakYADgkzL1CaqbTtJnc5N0qsexJD0l4mSB6Vs3st9Yb72+PeXGOtAce2M9vH9vePfB6P1vhh//fXjrL6Nvbv9MsJamg7V0OZZGJsF6cQbWM7B+ucBamoH1iwzWYwHnxQVroZQE69VKY5kbuNpy/AWP4BWVhLBmkTeCFcZvk9x9woqOwfJmRioft0uD8qZlurtTeRz6DuwNmXB4/eMn1/51+PCGj+KP3x3e/3T43tuj6/dBcnTzy6N/3hz+8frh4ztHf/thRunPh9IlQShlebWXgXfpF6D0pVIGSmdGM0rPSumTRzAjjx/rOJ28m7nJO9XjWPKe7FoG6B7duf5yvSNSnA7axcuxtJLyjog0e0lkRtovF2kXZ6T9IpP2WMT5v5C2/4N9C+CP0KpjA7u5v2QMvJvW3ol9Ye3zujacTUPzJzPfy+jhtEQVxD/nJBslb2cqtg0QRD7+yv395bpuXmnkG72siCIuLxZPa0V8ulTsKp2SWuyUJK20VCovnSaf4NJKybcJpIoekDJ5sz9fI4B+SffoK4xtxdzJWRubYOpIvlSAmaIH0g/sYRmt6rbjXiSZ0v/FJJdCySUGwhflEqPdi6x8SRYXfAlY8PHW+ES3gwDjsk9/LWNd7+k5P2cQgiiUrAT2Qb/PUDHvikLS28AHALKxGiBcd34LCY19/5OnNnasIMqH/kFdLa+Tuzo+cN4CPdlZJ/Ne0YDMTu5NP6TVjZ/RAYpeJ62iYTr6zq6bd12lcrmIF7FUkLqqWihBoQDpuFPQlG5ZFIRuUSOvQISVQ3rQ8X7ORkhS0R1PMfL78WP/JwT5f/WhU25CQQAA</t>
+          <t>7D8AAB+LCAAAAAAAAAPtm9tv29YZwP8Vwk8tEJmkLrblnbDQxXa0WrZrKUvcl4Aij23OFKnxYltv6UMbL12KDU0LtE0XdFvXrusNWNZ0ufV/KSw5e8q/sO+cw6tEOaSbFTWgIkV0vsu5n+/78YRErxx2dW4fW7ZmGhdnxFlhhsOGYqqasXNxxnW2c+LczCsSWjpUsL4hW3IXO2DMgZdhLx7a2sWZXcfpLfL8wcHB7EFh1rR2+LwgiPzV5mpL2cVdOacZtiMbCp4JvNTne81IqKZ2m9iRVdmRmefFmUarMVvDmlIHWVM25B1szVZdWzOwbS8ZjuZo2CaeFpYdXKs3f8MGJuVn52ZFxI/JQ8uqq+kqs4tZMrlnB83ittbFUl4QF3KimMuX28LcYqm8KORnRbHwuu8YGKJV2XZa2NrXFCpoOXK3R91FMV8W5kplIY/4RCOoK5wACa3r6ibe12ys1rCu25lmhPcWsKI4MOpskykgPuLrVXT2LqxYcm+3rTk6zuq+bFpYgYk6U9tr+GDd8uav3VsFbXtXs5x+Xe5nruuyja31HpmNbK4SqpuGU9Gx5VzuwaJiFdYcFJJjuRjxE5ShU12zFfitGS5WpW1Zt6NOMSW6Ylp7dk9W8BocWJ7UcWDopqzCznI029GUsNExBdqwzB7UCI1XTV1dhlo94wRFUHPDgCkmzVZNcy/sXZIS0T1AdwOsaVd2fPMxOWrtmgfrht5vuR1bsbQOVutV3zpRh8jJ87xrru2YXehFKEJMFpE0m3wf/oPDNqpBdaxoXVnf0GEebakAFcUEqOI65rbm1Ezd7Rq2360RKboCg2rjw2CQQRmtw/oaZN5No2H49mymE1Vxh03zIGhzXEHnISKu2Iq/4uOKUeM6yPwVHNfQRSGjXNZ0yAXR5YhI4xujtYuxk7grmAaRsLdMsotU7a+53Q6csA4cs33aqo34UI9gq8J2h35JAmSMHP3TFoRF+gf6EajRkqFOtvOVCJqLtCWJoBsRIRiTXtVlYw+kVzRnd63ijyVBg9gMTLQf1yE4vD1d7lNxMEtRGWoYiu6qmMWEhrFNtyjpG1vUiWo0JlqFYy4h2ei3+z2Iwba26MCPizOQlRdtx4K8PyMppms4Vp8ED8R7ps/zsd2OQRuQ9dQ+2xb+nQu40V92DaVmqulbU9nsXDY0J30PTddiETG9C509Ehxdu45JmKFxP7W/kmVMtpXJvGvgrmloSvrZhkkmvVfPMBDbP1WpPTA7X6ntdUjtLPORs57azQJWhFyXqZmKbZuKRjerdzzUiD8/4cjU8bbs6sBpDmTZnSD2jopRxd4btYmK0GVL9yOgRCjYBgxW1O6sAvxAUG9WMbtEwAN9XmkhPmpPIEjBS8bOqmzsuIAZQVwZlQfxl6TItiUbNhlOQBUjoTjZCPlxitGOxILXuks3AgteJmgRP2KH2rjbMy1Zb8LEaMvetvOQCWikKTu7Xglym44Vf5L50DXwivfM7/jzzGiSYsMgB94LkyNCakTGwoA7tAlliIyyCcdSr8m61rFYVPVTeZIOFizkQz/+ksFlZEV/DeChC7Lvq7hPSDwseHK6ZUVfwTYwCaRSa7O4kC8JpRKQDSkjOuIVc9/hAIMxYCKX49ryIfcrrmGo2r6murIOP2HzwcjY9HgpKJNn1Act+/GddqEC/YxL4gbAGTsapI9xw0ATOkhbWLb0fsSQDXHVVMBuePuHwYM7w9vfDd78NHfy+TuDm588e/Th8fdfHD94wKRsjMwateWOjmmP2tWFBaFQhA0WiBCZVZ5iseoqDpVtbVEaDsrIe3qjhdpSo7ayWqWBJBD67iyX8OTBsG+6YbHFRkEbomvJ+1uAmUhtPzB55Zg2kpsk8qC2j+PWUf0kRzYXJw8/O3n41URvb8JCyBLLZXgSzj+XweCRVxyzCxhsNRb8iXExJ5Ry+XzEeMQGbbLIH8xTQ5UKolAWxHlBDIK4GuziJKNRlVdTW97hR/yYqMa4KNgC0bKvpDu/jW0nULOzECl4e/Tfbz/95r2YlTe7niReC3SO8gtpjPcLtOq1zTbXWr+8WVvi2kstsk9CXcSOVX6Ksdd6cKBim8ow4JRf4CCrQxbjZuBRaIYztzksK7tcH45i5CDGNluSlDV0xipHe7limW6PrUjEIZQmWAbhJNEjIdhQHZ3PsagTqhLMWV8H/7mX5OANpB6SrLTZrHJdI9iXVIZiGiaK6L1T+8GT4+9vkOD27Z8G378Rq8FrJ7gSgH0OpylaDLY9hDwv0YxI0JUWncw94VoksXhC8gS1YWqGY0tikT48eSUEriKpjf6NGl3IdbRiOl8gH5GgS7K9dOh4B1taQ3xcAP3syZBmzfChMxCwGB7O638//vPwo3vD9799euOLwc3PB394/+Th3adff8JO3fC9b4e3vvai/GgioH0hj7KM/jh6N6Jw5DRyJGlzP15/lzNMhwPW4FwakX68/kGkMtJRSiVhzcByQUfiXRgzjToTPy7SlaAPMb/AhWX+GklhhcDCS2JmT1PCRl7PkarIuaOKlxrtnGtjzgSMehlGEjcOndP6eS4spW7MC3kx72lZb8gQOrIdmfoV3ewARvgKevMwYhLzOt0htKXtrayuVyuroQnrxLqlYotsQ/YD+SxJUkrD9kv+VotIQAvEp7g6uSwaMxtXBTVHwhjv3bpsV1QS/pLvKGIWqOZaFiMiw7uwb7k9oGD/em6ynl5ZRsB3jUFqFIXDcqMe10M5ooVEGFcTAdXT0OSpWJhq2OSCh3HsGpmasAi62DUnTId3J89IC6gSWzyJO0uWZVqJwSfU+GZNQGiIKHw444ENXVOG22q4Vr7AD3gvBruL5UI5jt2WadtcHQCZXLFyHgpyL63UN15OhO1T7U9B7NfSIvaYYRJiv+YCxuHJlD346PHgrTdPbt89fvDZ8PrDwfVHzx4dQR+fPfr9FK9fGF6Xc0Lhl4PXoig8H689oylep8Xr4KSFONyUrQvcr10DX+CAci5wBI+zQ/ZPqngyar+WGbUTPU5F7aTok4a2v/prBtruTKTtzmTaHtx64/jBDy+KtsXJtC1ei+STcdou5ae0PaXtc0Xb4pS2zwttjwSfXyxtl0RhPkbbteoiV1H3yStH9iK3AQNl/yg5ztmTLE8h7EtpCXvMMImwW7iryfQebCJk16rPHn349N794ZdPBg+/G965Ozj6x8k7N4Lr7ClpvyjSXgDMnktD2oWf5yK7VE5xkc2MpqSdlrQvyfp2rk9vcQMiBhg+K1+fobrJVH0pM1UnepxK1RMiThqwvnUz/U32xqubE26yfc2pN9mD+/cGdx8M3/9m8PHfB7f+Mvzm9k+E7PxkyM5fi6SRcciem0L2FLLPF2Tnp5B9XiB7JPj8ciFbKMYhe7nSWOT6jroYfQnEf40lJqyZ5K1hmbHcOIOfsaJTEL2ZktBH7ZIAvWkazu5ENoe+A4dDVhwcffz0xr+OH970sPzxu4P7nw7ee2t4dB8kJ29/efLPtwd/PDp+fOfkb0+mxP5iiD0vCMU0r/8yCC/+DMS+UExB7MxoSuxpiX38CKZk81MdJ1N4MzOFJ3qcSuHjXUsB4MM7R+frPZLCZOguXIuklYT3SPLTF0mm1H2+qLswpe7zQt0j0ef/Qt3eD/btgDdCs4517GT+8tH3bpr7Z/aFtc/q2rDXddWbzGwvrwfTElYQ/fyTbJSsnalYFgAR+Vgs8/eaq5qx18g2eqmjluRCvqDM4fl8eW6+3BG2y9sLhQL8XxTkEiAhrZR8y0Cq6AI1ky8BsjUCGBh3D7/a2JSNnYy1sQmmjuTLBpgpMs9kC2uW7VwladL7xSRbgWSLUfBVqchQ9yorb0liyZOABR+tno/1048oDvs22NRXta6W8XsHwQ878Upg4Xs9xolZlxAy3ho+BIqN1ACxuvNbyGbsA6EstbFzBCE+8Ccf5dnazq6TtWOKouQ7gpLPFQt4LleU5fmcjMXtnCgU5ueU4nyxMFcin/R5lUNA0/BBxkZ4f8HCb/al/wE/Dnhd7D8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -643,7 +643,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.01561590289697475</v>
+        <v>0.0156159028969747</v>
       </c>
       <c r="C20" s="2">
-        <v>0.6997387128588987</v>
+        <v>0.6997387128588985</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.8327314397107113</v>
+        <v>-0.8327314397107112</v>
       </c>
       <c r="E20" s="2">
         <v>1.592444231343219</v>
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.075751539480831</v>
+        <v>-1.075751539480832</v>
       </c>
       <c r="C21" s="2">
         <v>0.008469068129264734</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.0007957953460087097</v>
+        <v>-0.0007957953460095979</v>
       </c>
       <c r="E21" s="2">
         <v>1.800831162261844</v>
@@ -2473,70 +2473,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>155</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>155</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Gross Domestic Product (GDP)</Name>
-          <DisplayName>Gross Domestic Product (GDP)</DisplayName>
-          <SeriesId>310911001</SeriesId>
-          <Code>SR4824939</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>155</EndRow>
-          <EndCol>4</EndCol>
-          <Name>CB: Advances: Personal</Name>
-          <DisplayName>CB: Advances: Personal</DisplayName>
-          <SeriesId>310905901</SeriesId>
-          <Code>SR4825107</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>5</InitCol>
-          <EndRow>155</EndRow>
-          <EndCol>5</EndCol>
-          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
-          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
-          <SeriesId>310908401</SeriesId>
-          <Code>SR4825047</Code>
-          <Order>3</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47D46C3C-0FB2-4515-BADD-9198D86829AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>